--- a/Diseño Pantalla.xlsx
+++ b/Diseño Pantalla.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pantalla Principal" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
   <si>
     <t>Mesas</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Delivery libres:</t>
   </si>
   <si>
-    <t>Meseros</t>
-  </si>
-  <si>
     <t>Menu</t>
   </si>
   <si>
@@ -237,6 +234,33 @@
   </si>
   <si>
     <t>Acceso Encargado</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Tipo (Mesero/delivery):</t>
+  </si>
+  <si>
+    <t>Lista</t>
+  </si>
+  <si>
+    <t>Empleados</t>
+  </si>
+  <si>
+    <t>Carga y Visualización de Empleado / Mesero o Delivery</t>
+  </si>
+  <si>
+    <t>Empleado:</t>
+  </si>
+  <si>
+    <t>Capacidad:</t>
+  </si>
+  <si>
+    <t>Nro:</t>
+  </si>
+  <si>
+    <t>Carga Mesas / Delivery</t>
   </si>
 </sst>
 </file>
@@ -252,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,8 +301,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -796,11 +832,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -844,21 +978,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -884,24 +1003,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
@@ -911,6 +1012,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,6 +1186,150 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="3 Conector recto de flecha"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8048625" y="1533525"/>
+          <a:ext cx="1514475" cy="3257550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>391027</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28578</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="10 Conector angular"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1183605" y="2535656"/>
+          <a:ext cx="4510342" cy="502"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="15 Conector recto de flecha"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609725" y="276225"/>
+          <a:ext cx="2181225" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -1464,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,10 +1832,10 @@
       <c r="B4" s="3"/>
       <c r="C4" s="11"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="48"/>
+      <c r="E4" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="50"/>
       <c r="G4" s="4"/>
       <c r="H4" s="12"/>
       <c r="I4" s="4"/>
@@ -1523,10 +1852,10 @@
       <c r="B6" s="3"/>
       <c r="C6" s="11"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="48"/>
+      <c r="E6" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="50"/>
       <c r="G6" s="4"/>
       <c r="H6" s="12"/>
       <c r="I6" s="4"/>
@@ -1543,10 +1872,10 @@
       <c r="B8" s="3"/>
       <c r="C8" s="11"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="48"/>
+      <c r="E8" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="50"/>
       <c r="G8" s="4"/>
       <c r="H8" s="12"/>
       <c r="I8" s="4"/>
@@ -1566,7 +1895,7 @@
       <c r="C10" s="26"/>
       <c r="D10" s="6"/>
       <c r="E10" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="8"/>
@@ -1577,10 +1906,10 @@
       <c r="B11" s="3"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
-      <c r="E11" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="48"/>
+      <c r="E11" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="50"/>
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="4"/>
@@ -1599,10 +1928,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
-      <c r="E13" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="48"/>
+      <c r="E13" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="50"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="4"/>
@@ -1663,10 +1992,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,52 +2029,53 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="8"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="75"/>
       <c r="H2" s="8"/>
       <c r="I2" s="3"/>
       <c r="J2" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K2" s="12"/>
       <c r="L2" s="3"/>
       <c r="M2" s="11"/>
-      <c r="N2" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="36"/>
+      <c r="N2" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="63"/>
       <c r="P2" s="22"/>
       <c r="S2" s="12"/>
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
-      <c r="B3" s="9"/>
+      <c r="B3" s="76"/>
       <c r="C3" s="2"/>
       <c r="D3" s="10"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="9"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="2"/>
       <c r="H3" s="10"/>
       <c r="K3" s="12"/>
       <c r="L3" s="3"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>17</v>
+      <c r="N3" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="83"/>
+      <c r="P3" s="84" t="s">
+        <v>16</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="4"/>
@@ -1760,20 +2090,20 @@
       <c r="G4" s="2"/>
       <c r="H4" s="10"/>
       <c r="J4" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="3"/>
       <c r="M4" s="11"/>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="64"/>
+      <c r="P4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="S4" s="12"/>
       <c r="T4" s="4"/>
@@ -1790,15 +2120,15 @@
       <c r="K5" s="12"/>
       <c r="L5" s="3"/>
       <c r="M5" s="26"/>
-      <c r="N5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="22" t="s">
-        <v>17</v>
+      <c r="N5" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="85"/>
+      <c r="P5" s="86" t="s">
+        <v>16</v>
       </c>
       <c r="Q5" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R5" s="24"/>
       <c r="S5" s="12"/>
@@ -1814,18 +2144,18 @@
       <c r="G6" s="2"/>
       <c r="H6" s="16"/>
       <c r="J6" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="3"/>
       <c r="M6" s="26"/>
       <c r="N6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="28"/>
       <c r="Q6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R6" s="8"/>
       <c r="S6" s="12"/>
@@ -1848,6 +2178,7 @@
       <c r="H7" s="12">
         <v>1</v>
       </c>
+      <c r="J7" s="24"/>
       <c r="K7" s="12"/>
       <c r="L7" s="3"/>
       <c r="M7" s="26"/>
@@ -1876,7 +2207,11 @@
       <c r="H8" s="15">
         <v>11</v>
       </c>
-      <c r="K8" s="12"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="31"/>
       <c r="L8" s="3"/>
       <c r="M8" s="26"/>
       <c r="N8" s="11"/>
@@ -1889,6 +2224,12 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="12"/>
       <c r="L9" s="3"/>
       <c r="M9" s="26"/>
@@ -1901,13 +2242,10 @@
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>3</v>
-      </c>
+      <c r="A10" s="26"/>
+      <c r="B10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="4"/>
       <c r="K10" s="12"/>
       <c r="L10" s="3"/>
       <c r="M10" s="26"/>
@@ -1921,9 +2259,11 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="K11" s="12"/>
       <c r="L11" s="3"/>
       <c r="M11" s="11"/>
@@ -1938,7 +2278,7 @@
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
@@ -1955,32 +2295,32 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
       <c r="K13" s="12"/>
       <c r="L13" s="3"/>
       <c r="M13" s="11"/>
       <c r="O13" s="3"/>
       <c r="P13" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="27"/>
       <c r="R13" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S13" s="12"/>
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
       <c r="K14" s="12"/>
       <c r="L14" s="3"/>
       <c r="M14" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
@@ -1992,9 +2332,9 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
       <c r="K15" s="12"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
@@ -2007,7 +2347,7 @@
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="3"/>
@@ -2021,34 +2361,34 @@
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="24"/>
       <c r="K17" s="12"/>
       <c r="L17" s="3"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="O17" s="36"/>
+      <c r="N17" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="63"/>
       <c r="P17" s="22"/>
       <c r="Q17" s="31"/>
       <c r="R17" s="4"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
-      <c r="B18" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="48"/>
+      <c r="B18" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="50"/>
       <c r="D18" s="4"/>
       <c r="K18" s="12"/>
       <c r="L18" s="3"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="37"/>
+      <c r="N18" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="64"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="4"/>
@@ -2060,10 +2400,10 @@
       <c r="K19" s="12"/>
       <c r="L19" s="3"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="37"/>
+      <c r="N19" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="64"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="4"/>
     </row>
@@ -2085,17 +2425,17 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="34"/>
+      <c r="J21" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="61"/>
       <c r="L21" s="3"/>
       <c r="M21" s="11"/>
       <c r="N21" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="12"/>
       <c r="R21" s="4"/>
@@ -2109,7 +2449,7 @@
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L23" s="3"/>
       <c r="M23" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
@@ -2117,8 +2457,202 @@
       <c r="Q23" s="15"/>
       <c r="R23" s="4"/>
     </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="8"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="12"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27" s="63"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="31"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="12"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="O28" s="71"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="31"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="12"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="O29" s="7"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="31"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="12"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="31"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="26"/>
+      <c r="C31" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="31"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="31"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="26"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="31"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="31"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="26"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="31"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="31"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="26"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="31"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="12"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="26"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="31"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="O35" s="27"/>
+      <c r="P35" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="12"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="11"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="12"/>
+      <c r="M36" s="11"/>
+      <c r="Q36" s="12"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="80"/>
+      <c r="C37" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="81"/>
+      <c r="E37" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="79"/>
+      <c r="M37" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="15"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="44"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="15"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N30:P33"/>
     <mergeCell ref="B13:D15"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="J21:K21"/>
@@ -2138,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2165,10 +2699,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="37"/>
+      <c r="B3" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="64"/>
       <c r="H3" s="12"/>
       <c r="I3" s="4"/>
     </row>
@@ -2183,14 +2717,14 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
-      <c r="F5" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="48"/>
+      <c r="F5" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="50"/>
       <c r="H5" s="12"/>
       <c r="I5" s="4"/>
     </row>
@@ -2207,10 +2741,10 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="D7" s="12"/>
-      <c r="F7" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="48"/>
+      <c r="F7" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="50"/>
       <c r="H7" s="12"/>
       <c r="I7" s="4"/>
     </row>
@@ -2228,10 +2762,10 @@
       <c r="B9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="50"/>
+      <c r="F9" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="66"/>
       <c r="H9" s="31"/>
       <c r="I9" s="4"/>
     </row>
@@ -2275,10 +2809,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="52"/>
+      <c r="B14" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="68"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2302,7 +2836,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,7 +2860,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
-      <c r="P1" s="57"/>
+      <c r="P1" s="46"/>
       <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2337,11 +2871,11 @@
       <c r="I2" s="3"/>
       <c r="J2" s="11"/>
       <c r="K2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="24"/>
       <c r="N2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O2" s="24"/>
       <c r="P2" s="12"/>
@@ -2350,25 +2884,25 @@
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="48"/>
+      <c r="F3" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="50"/>
       <c r="H3" s="31"/>
       <c r="I3" s="3"/>
       <c r="J3" s="11"/>
       <c r="K3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L3" s="22"/>
       <c r="M3" s="4"/>
       <c r="N3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="31"/>
@@ -2376,21 +2910,21 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
       <c r="H4" s="12"/>
       <c r="I4" s="3"/>
       <c r="J4" s="11"/>
       <c r="K4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L4" s="22"/>
       <c r="M4" s="4"/>
       <c r="N4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="31"/>
@@ -2398,24 +2932,24 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="48"/>
+      <c r="F5" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="3"/>
       <c r="J5" s="11"/>
       <c r="K5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L5" s="22"/>
       <c r="M5" s="4"/>
       <c r="N5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O5" s="22"/>
       <c r="P5" s="31"/>
@@ -2423,16 +2957,16 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
       <c r="H6" s="12"/>
       <c r="I6" s="3"/>
       <c r="J6" s="11"/>
       <c r="K6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L6" s="22"/>
       <c r="M6" s="4"/>
@@ -2442,14 +2976,14 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="48"/>
+      <c r="F7" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="50"/>
       <c r="H7" s="31"/>
       <c r="I7" s="3"/>
       <c r="J7" s="11"/>
@@ -2461,21 +2995,21 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="12"/>
       <c r="I8" s="3"/>
       <c r="J8" s="26"/>
       <c r="K8" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="3"/>
       <c r="N8" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="31"/>
@@ -2483,25 +3017,25 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="54"/>
+      <c r="F9" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="43"/>
       <c r="H9" s="31"/>
       <c r="I9" s="3"/>
       <c r="J9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="55"/>
+        <v>54</v>
+      </c>
+      <c r="K9" s="44"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="55"/>
+      <c r="N9" s="44"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="58"/>
+      <c r="P9" s="47"/>
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -2530,7 +3064,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -2563,7 +3097,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="11"/>
       <c r="K14" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -2574,50 +3108,50 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I15" s="3"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="40"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="53"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I16" s="3"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="43"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="56"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I17" s="3"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="56"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I18" s="3"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="43"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="56"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I19" s="3"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="46"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="59"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="4"/>
     </row>
@@ -2635,7 +3169,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="11"/>
       <c r="K21" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P21" s="12"/>
       <c r="Q21" s="4"/>
@@ -2650,7 +3184,7 @@
     <row r="23" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I23" s="3"/>
       <c r="J23" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -2734,7 +3268,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2766,7 +3300,7 @@
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -2778,13 +3312,13 @@
       <c r="J2" s="27"/>
       <c r="K2" s="26"/>
       <c r="L2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="22"/>
       <c r="R2" s="31"/>
@@ -2798,44 +3332,44 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="30"/>
-      <c r="H3" s="57"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="31"/>
       <c r="J3" s="27"/>
       <c r="K3" s="26"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="P3" s="56" t="s">
-        <v>63</v>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
+      <c r="P3" s="45" t="s">
+        <v>62</v>
       </c>
       <c r="Q3" s="22"/>
       <c r="R3" s="31"/>
       <c r="S3" s="4"/>
       <c r="T3" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
       <c r="B4" s="11"/>
       <c r="C4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
       <c r="F4" s="3"/>
       <c r="G4" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
       <c r="J4" s="27"/>
       <c r="K4" s="26"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="56"/>
       <c r="P4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="22"/>
       <c r="R4" s="31"/>
@@ -2844,41 +3378,41 @@
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
       <c r="G5" s="29"/>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
       <c r="J5" s="27"/>
       <c r="K5" s="26"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="43"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="56"/>
       <c r="P5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="59"/>
+        <v>49</v>
+      </c>
+      <c r="Q5" s="48"/>
       <c r="R5" s="31"/>
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="3"/>
       <c r="G6" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
       <c r="J6" s="27"/>
       <c r="K6" s="26"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="46"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="59"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="12"/>
       <c r="S6" s="4"/>
@@ -2886,9 +3420,9 @@
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
       <c r="G7" s="29"/>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
@@ -2902,28 +3436,28 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="3"/>
       <c r="G8" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
       <c r="J8" s="27"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="48"/>
+      <c r="L8" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="50"/>
       <c r="N8" s="3"/>
       <c r="O8" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P8" s="27"/>
       <c r="Q8" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R8" s="31"/>
       <c r="S8" s="4"/>
@@ -2931,9 +3465,9 @@
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
       <c r="G9" s="5"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
@@ -2952,11 +3486,11 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="58"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="31"/>
       <c r="J10" s="27"/>
       <c r="K10" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
@@ -2989,7 +3523,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>

--- a/Diseño Pantalla.xlsx
+++ b/Diseño Pantalla.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Pantalla Principal" sheetId="2" r:id="rId1"/>
@@ -1012,74 +1012,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
@@ -1096,6 +1030,72 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1794,7 +1794,7 @@
   <dimension ref="B1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F4"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,10 +1832,10 @@
       <c r="B4" s="3"/>
       <c r="C4" s="11"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="50"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="4"/>
       <c r="H4" s="12"/>
       <c r="I4" s="4"/>
@@ -1852,10 +1852,10 @@
       <c r="B6" s="3"/>
       <c r="C6" s="11"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="4"/>
       <c r="H6" s="12"/>
       <c r="I6" s="4"/>
@@ -1872,10 +1872,10 @@
       <c r="B8" s="3"/>
       <c r="C8" s="11"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="50"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="4"/>
       <c r="H8" s="12"/>
       <c r="I8" s="4"/>
@@ -1906,10 +1906,10 @@
       <c r="B11" s="3"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="50"/>
+      <c r="F11" s="66"/>
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
       <c r="I11" s="4"/>
@@ -1928,10 +1928,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="50"/>
+      <c r="F13" s="66"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="4"/>
@@ -1995,7 +1995,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,13 +2032,13 @@
       <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="75"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="8"/>
       <c r="E2" s="4"/>
       <c r="F2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="75"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="8"/>
       <c r="I2" s="3"/>
       <c r="J2" s="23" t="s">
@@ -2047,31 +2047,31 @@
       <c r="K2" s="12"/>
       <c r="L2" s="3"/>
       <c r="M2" s="11"/>
-      <c r="N2" s="62" t="s">
+      <c r="N2" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="63"/>
+      <c r="O2" s="68"/>
       <c r="P2" s="22"/>
       <c r="S2" s="12"/>
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
-      <c r="B3" s="76"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="2"/>
       <c r="D3" s="10"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="76"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="2"/>
       <c r="H3" s="10"/>
       <c r="K3" s="12"/>
       <c r="L3" s="3"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="83" t="s">
+      <c r="N3" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="83"/>
-      <c r="P3" s="84" t="s">
+      <c r="O3" s="61"/>
+      <c r="P3" s="62" t="s">
         <v>16</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -2095,10 +2095,10 @@
       <c r="K4" s="12"/>
       <c r="L4" s="3"/>
       <c r="M4" s="11"/>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="64"/>
+      <c r="O4" s="82"/>
       <c r="P4" s="22" t="s">
         <v>16</v>
       </c>
@@ -2120,11 +2120,11 @@
       <c r="K5" s="12"/>
       <c r="L5" s="3"/>
       <c r="M5" s="26"/>
-      <c r="N5" s="85" t="s">
+      <c r="N5" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="85"/>
-      <c r="P5" s="86" t="s">
+      <c r="O5" s="63"/>
+      <c r="P5" s="64" t="s">
         <v>16</v>
       </c>
       <c r="Q5" s="24" t="s">
@@ -2243,8 +2243,8 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
-      <c r="B10" s="69"/>
-      <c r="F10" s="69"/>
+      <c r="B10" s="49"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="4"/>
       <c r="K10" s="12"/>
       <c r="L10" s="3"/>
@@ -2295,9 +2295,9 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
       <c r="K13" s="12"/>
       <c r="L13" s="3"/>
       <c r="M13" s="11"/>
@@ -2314,9 +2314,9 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
       <c r="K14" s="12"/>
       <c r="L14" s="3"/>
       <c r="M14" s="13" t="s">
@@ -2332,9 +2332,9 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
       <c r="K15" s="12"/>
       <c r="M15" s="29"/>
       <c r="N15" s="29"/>
@@ -2367,28 +2367,28 @@
       <c r="K17" s="12"/>
       <c r="L17" s="3"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="62" t="s">
+      <c r="N17" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="O17" s="63"/>
+      <c r="O17" s="68"/>
       <c r="P17" s="22"/>
       <c r="Q17" s="31"/>
       <c r="R17" s="4"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="4"/>
       <c r="K18" s="12"/>
       <c r="L18" s="3"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="62" t="s">
+      <c r="N18" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="64"/>
+      <c r="O18" s="82"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="4"/>
@@ -2400,10 +2400,10 @@
       <c r="K19" s="12"/>
       <c r="L19" s="3"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="62" t="s">
+      <c r="N19" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="64"/>
+      <c r="O19" s="82"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="4"/>
     </row>
@@ -2425,10 +2425,10 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="60" t="s">
+      <c r="J21" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="61"/>
+      <c r="K21" s="81"/>
       <c r="L21" s="3"/>
       <c r="M21" s="11"/>
       <c r="N21" s="23" t="s">
@@ -2468,7 +2468,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
-      <c r="C26" s="78"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="30"/>
       <c r="E26" s="7"/>
       <c r="F26" s="8"/>
@@ -2487,10 +2487,10 @@
       <c r="E27" s="4"/>
       <c r="F27" s="12"/>
       <c r="M27" s="11"/>
-      <c r="N27" s="62" t="s">
+      <c r="N27" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="O27" s="63"/>
+      <c r="O27" s="68"/>
       <c r="P27" s="22"/>
       <c r="Q27" s="31"/>
     </row>
@@ -2503,11 +2503,11 @@
       <c r="E28" s="4"/>
       <c r="F28" s="12"/>
       <c r="M28" s="11"/>
-      <c r="N28" s="70" t="s">
+      <c r="N28" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="O28" s="71"/>
-      <c r="P28" s="72"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="50"/>
       <c r="Q28" s="31"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -2519,23 +2519,23 @@
       <c r="E29" s="4"/>
       <c r="F29" s="12"/>
       <c r="M29" s="26"/>
-      <c r="N29" s="73" t="s">
+      <c r="N29" s="51" t="s">
         <v>74</v>
       </c>
       <c r="O29" s="7"/>
-      <c r="P29" s="74"/>
+      <c r="P29" s="52"/>
       <c r="Q29" s="31"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
-      <c r="C30" s="77"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="29"/>
       <c r="E30" s="24"/>
       <c r="F30" s="12"/>
       <c r="M30" s="26"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="53"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="73"/>
       <c r="Q30" s="31"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2547,9 +2547,9 @@
       <c r="E31" s="8"/>
       <c r="F31" s="31"/>
       <c r="M31" s="26"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="56"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="76"/>
       <c r="Q31" s="31"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -2559,9 +2559,9 @@
       <c r="E32" s="35"/>
       <c r="F32" s="31"/>
       <c r="M32" s="26"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="56"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="76"/>
       <c r="Q32" s="31"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
@@ -2571,9 +2571,9 @@
       <c r="E33" s="38"/>
       <c r="F33" s="31"/>
       <c r="M33" s="26"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="59"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="79"/>
       <c r="Q33" s="31"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
@@ -2606,7 +2606,7 @@
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
-      <c r="C36" s="82"/>
+      <c r="C36" s="60"/>
       <c r="D36" s="5"/>
       <c r="E36" s="29"/>
       <c r="F36" s="12"/>
@@ -2614,15 +2614,15 @@
       <c r="Q36" s="12"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="80"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="81"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="79"/>
+      <c r="F37" s="57"/>
       <c r="M37" s="13" t="s">
         <v>76</v>
       </c>
@@ -2650,17 +2650,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
     <mergeCell ref="N27:O27"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="N30:P33"/>
     <mergeCell ref="B13:D15"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="J21:K21"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2672,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,10 +2699,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="64"/>
+      <c r="C3" s="82"/>
       <c r="H3" s="12"/>
       <c r="I3" s="4"/>
     </row>
@@ -2721,10 +2721,10 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="50"/>
+      <c r="G5" s="66"/>
       <c r="H5" s="12"/>
       <c r="I5" s="4"/>
     </row>
@@ -2741,10 +2741,10 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="D7" s="12"/>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="50"/>
+      <c r="G7" s="66"/>
       <c r="H7" s="12"/>
       <c r="I7" s="4"/>
     </row>
@@ -2762,10 +2762,10 @@
       <c r="B9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="66"/>
+      <c r="G9" s="84"/>
       <c r="H9" s="31"/>
       <c r="I9" s="4"/>
     </row>
@@ -2809,10 +2809,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2836,7 +2836,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2889,10 +2889,10 @@
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="66"/>
       <c r="H3" s="31"/>
       <c r="I3" s="3"/>
       <c r="J3" s="11"/>
@@ -2910,9 +2910,9 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
       <c r="H4" s="12"/>
@@ -2932,14 +2932,14 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="50"/>
+      <c r="G5" s="66"/>
       <c r="H5" s="31"/>
       <c r="I5" s="3"/>
       <c r="J5" s="11"/>
@@ -2957,9 +2957,9 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
       <c r="H6" s="12"/>
@@ -2976,14 +2976,14 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="50"/>
+      <c r="G7" s="66"/>
       <c r="H7" s="31"/>
       <c r="I7" s="3"/>
       <c r="J7" s="11"/>
@@ -2995,9 +2995,9 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="12"/>
@@ -3017,9 +3017,9 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="79"/>
       <c r="E9" s="3"/>
       <c r="F9" s="42" t="s">
         <v>43</v>
@@ -3108,50 +3108,50 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I15" s="3"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="53"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="73"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I16" s="3"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="56"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="76"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="4"/>
     </row>
     <row r="17" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I17" s="3"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="56"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="76"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="4"/>
     </row>
     <row r="18" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I18" s="3"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="56"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="76"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="4"/>
     </row>
     <row r="19" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I19" s="3"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="59"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="79"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="4"/>
     </row>
@@ -3267,8 +3267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3336,9 +3336,9 @@
       <c r="I3" s="31"/>
       <c r="J3" s="27"/>
       <c r="K3" s="26"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="73"/>
       <c r="P3" s="45" t="s">
         <v>62</v>
       </c>
@@ -3365,9 +3365,9 @@
       <c r="I4" s="31"/>
       <c r="J4" s="27"/>
       <c r="K4" s="26"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="56"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="76"/>
       <c r="P4" s="3" t="s">
         <v>63</v>
       </c>
@@ -3378,17 +3378,17 @@
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
       <c r="G5" s="29"/>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
       <c r="J5" s="27"/>
       <c r="K5" s="26"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="56"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="76"/>
       <c r="P5" s="3" t="s">
         <v>49</v>
       </c>
@@ -3399,9 +3399,9 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="3"/>
       <c r="G6" s="23" t="s">
         <v>57</v>
@@ -3410,9 +3410,9 @@
       <c r="I6" s="31"/>
       <c r="J6" s="27"/>
       <c r="K6" s="26"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="59"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="79"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="12"/>
       <c r="S6" s="4"/>
@@ -3420,9 +3420,9 @@
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="76"/>
       <c r="G7" s="29"/>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
@@ -3436,9 +3436,9 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="3"/>
       <c r="G8" s="23" t="s">
         <v>58</v>
@@ -3447,10 +3447,10 @@
       <c r="I8" s="31"/>
       <c r="J8" s="27"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="49" t="s">
+      <c r="L8" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="50"/>
+      <c r="M8" s="66"/>
       <c r="N8" s="3"/>
       <c r="O8" s="23" t="s">
         <v>64</v>
@@ -3465,9 +3465,9 @@
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79"/>
       <c r="G9" s="5"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
